--- a/kwitansi_output/Kwitansi_Miftahul_Arifin_19Jan-22Jan2023.xlsx
+++ b/kwitansi_output/Kwitansi_Miftahul_Arifin_19Jan-22Jan2023.xlsx
@@ -1319,7 +1319,7 @@
       </c>
       <c r="V3" s="43" t="inlineStr">
         <is>
-          <t>KWT_ATS_III_25_1077</t>
+          <t>KWT_ATS_III_25_1111</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="V5" s="60" t="inlineStr">
         <is>
-          <t>10 Mar 2025</t>
+          <t>11 Mar 2025</t>
         </is>
       </c>
       <c r="W5" s="60" t="n"/>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="G32" s="60" t="inlineStr">
         <is>
-          <t>10 Mar 2025</t>
+          <t>11 Mar 2025</t>
         </is>
       </c>
       <c r="H32" s="60" t="n"/>
